--- a/medicine/Médecine vétérinaire/Hippolyte_Rossignol/Hippolyte_Rossignol.xlsx
+++ b/medicine/Médecine vétérinaire/Hippolyte_Rossignol/Hippolyte_Rossignol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Hippolyte Rossignol, né à Pierre-de-Bresse (Saône-et-Loire) le 30 juillet 1837 et mort le 27 novembre 1919 à Melun (Seine-et-Marne), est un vétérinaire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'un vétérinaire Jean Appolline Rossignol (1813-1881) et de Joséphine Marguerite Franon (1816-1892)
 Son père entretient une amitié avec des vétérinaires enseignants : Jean-Henri Magne et Félix Lecoq, qu'Hippolyte rencontra donc enfant. 
@@ -549,44 +563,14 @@
           <t>Le vétérinaire militant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'attacha à la  création d'organisations  professionnelles pour lutter contre l'empirisme encore en vigueur, alors, dans cette profession. Dès 1861, il seconda son collègue René Pouteau, de Melun, dans son projet de créer une société de médecine vétérinaire en Seine-et-Marne, et en décembre 1861 que fut fondée, à Melun, la première société de praticiens vétérinaires de la région parisienne. Il y proposa l'organisation  d'un  Congrès national vétérinaire dont le but principal  devait être la préparation d'un projet de loi réglementant l'exercice de la médecine vétérinaire. Le projet échoua.
 D'une volonté déterminée, à son retour en Seine-et-Marne, il reprend sa proposition de 1862 relative à un Congrès National vétérinaire dont il demande la tenue en 1878, au moment de l'Exposition universelle. De ce congrès sortit un projet de loi sur la police sanitaire.
 En février 1879, il fonde la Société de Médecine vétérinaire pratique par la réunion des sociétés départementales de Seine-et-Oise, de Seine-et-Marne et du Loiret ; il en fut le secrétaire général. Le 15 juillet 1879, il fonde la revue l'Echo vétérinaire avec ses confrères Jean-François Quivogne, Thierry, Émilien Griolet et Larmet ; il en quitte la rédaction à la suite d'une brouille. En 1881, il fonde, avec Garnier et Biot, la revue la  Presse  vétérinaire.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hippolyte_Rossignol</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippolyte_Rossignol</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Les expériences de Pouilly-le-Fort</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les expériences sur le charbon
-Les expériences sur la péripneumonie
-Les expériences sur la tuberculose</t>
         </is>
       </c>
     </row>
